--- a/铝/data_input/氧化铝周度产量.xlsx
+++ b/铝/data_input/氧化铝周度产量.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D907"/>
+  <dimension ref="A1:D909"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10135,6 +10135,26 @@
         <v>27</v>
       </c>
     </row>
+    <row r="908">
+      <c r="A908" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B908" t="inlineStr"/>
+      <c r="C908" t="n">
+        <v>24.02</v>
+      </c>
+      <c r="D908" t="inlineStr"/>
+    </row>
+    <row r="909">
+      <c r="A909" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B909" t="inlineStr"/>
+      <c r="C909" t="n">
+        <v>-43.59</v>
+      </c>
+      <c r="D909" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
